--- a/datos/muestras.xlsx
+++ b/datos/muestras.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="945" windowWidth="28275" windowHeight="12315"/>
+    <workbookView xWindow="405" yWindow="-210" windowWidth="28275" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>347_M01</t>
   </si>
@@ -60,12 +60,6 @@
     <t>tt</t>
   </si>
   <si>
-    <t>Patron78</t>
-  </si>
-  <si>
-    <t>Patron80</t>
-  </si>
-  <si>
     <t>316_M01</t>
   </si>
   <si>
@@ -115,6 +109,24 @@
   </si>
   <si>
     <t>304_M11</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P068</t>
+  </si>
+  <si>
+    <t>P066</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>P064</t>
+  </si>
+  <si>
+    <t>P071</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +645,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2.3022</v>
@@ -647,7 +659,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2.323</v>
@@ -661,7 +673,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2.36</v>
@@ -675,7 +687,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2.3428</v>
@@ -689,7 +701,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2.286</v>
@@ -703,7 +715,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>2.3330000000000002</v>
@@ -717,7 +729,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2.3136000000000001</v>
@@ -731,7 +743,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2.2811999999999997</v>
@@ -745,7 +757,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2.3268</v>
@@ -759,7 +771,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2.2890000000000001</v>
@@ -770,7 +782,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2.2999999999999998</v>
@@ -781,7 +793,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2.3119999999999998</v>
@@ -792,7 +804,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>2.3170000000000002</v>
@@ -803,7 +815,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>2.2799999999999998</v>
@@ -814,7 +826,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2.2879999999999998</v>
@@ -825,7 +837,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2.2679999999999998</v>
@@ -836,7 +848,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2.3170000000000002</v>
@@ -847,7 +859,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>14.957000000000001</v>
@@ -858,7 +870,57 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <v>8632000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="C31">
+        <v>3948000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="C32">
+        <v>58910000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="C33">
+        <v>34430000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>14.957000000000001</v>
+      </c>
+      <c r="C34">
+        <v>17470000</v>
       </c>
     </row>
   </sheetData>
